--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp7-Acvr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp7-Acvr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,22 +79,22 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Bmp7</t>
+  </si>
+  <si>
+    <t>Acvr1</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Bmp7</t>
-  </si>
-  <si>
-    <t>Acvr1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.1928755</v>
+        <v>0.131795</v>
       </c>
       <c r="H2">
-        <v>0.385751</v>
+        <v>0.26359</v>
       </c>
       <c r="I2">
-        <v>0.5971269868707221</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.4970108562608389</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.2840475</v>
+        <v>8.424749</v>
       </c>
       <c r="N2">
-        <v>16.568095</v>
+        <v>16.849498</v>
       </c>
       <c r="O2">
-        <v>0.162064909128062</v>
+        <v>0.1980372819757593</v>
       </c>
       <c r="P2">
-        <v>0.1267883207199013</v>
+        <v>0.1585662899160533</v>
       </c>
       <c r="Q2">
-        <v>1.59778980358625</v>
+        <v>1.110339794455</v>
       </c>
       <c r="R2">
-        <v>6.391159214344999</v>
+        <v>4.44135917782</v>
       </c>
       <c r="S2">
-        <v>0.09677333086511702</v>
+        <v>0.1980372819757593</v>
       </c>
       <c r="T2">
-        <v>0.063015171844872</v>
+        <v>0.1585662899160533</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.1928755</v>
+        <v>0.131795</v>
       </c>
       <c r="H3">
-        <v>0.385751</v>
+        <v>0.26359</v>
       </c>
       <c r="I3">
-        <v>0.5971269868707221</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.4970108562608389</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>31.672871</v>
       </c>
       <c r="O3">
-        <v>0.2065440016062932</v>
+        <v>0.2481739331426511</v>
       </c>
       <c r="P3">
-        <v>0.2423785067907964</v>
+        <v>0.2980652388254983</v>
       </c>
       <c r="Q3">
-        <v>2.036306943520166</v>
+        <v>1.391442011148333</v>
       </c>
       <c r="R3">
-        <v>12.217841661121</v>
+        <v>8.348652066890001</v>
       </c>
       <c r="S3">
-        <v>0.1233329973353875</v>
+        <v>0.2481739331426511</v>
       </c>
       <c r="T3">
-        <v>0.1204647491993173</v>
+        <v>0.2980652388254983</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.1928755</v>
+        <v>0.131795</v>
       </c>
       <c r="H4">
-        <v>0.385751</v>
+        <v>0.26359</v>
       </c>
       <c r="I4">
-        <v>0.5971269868707221</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.4970108562608389</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.931556333333333</v>
+        <v>5.743874333333333</v>
       </c>
       <c r="N4">
-        <v>17.794669</v>
+        <v>17.231623</v>
       </c>
       <c r="O4">
-        <v>0.1160419635630586</v>
+        <v>0.1350190089916815</v>
       </c>
       <c r="P4">
-        <v>0.13617475034254</v>
+        <v>0.1621623699615343</v>
       </c>
       <c r="Q4">
-        <v>1.144051893569833</v>
+        <v>0.7570139177616666</v>
       </c>
       <c r="R4">
-        <v>6.864311361418999</v>
+        <v>4.542083506569999</v>
       </c>
       <c r="S4">
-        <v>0.06929178805297131</v>
+        <v>0.1350190089916815</v>
       </c>
       <c r="T4">
-        <v>0.06768032926885176</v>
+        <v>0.1621623699615343</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.1928755</v>
+        <v>0.131795</v>
       </c>
       <c r="H5">
-        <v>0.385751</v>
+        <v>0.26359</v>
       </c>
       <c r="I5">
-        <v>0.5971269868707221</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.4970108562608389</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.3875515</v>
+        <v>12.9373935</v>
       </c>
       <c r="N5">
-        <v>28.775103</v>
+        <v>25.874787</v>
       </c>
       <c r="O5">
-        <v>0.2814707697442357</v>
+        <v>0.3041142524947457</v>
       </c>
       <c r="P5">
-        <v>0.2202031668645185</v>
+        <v>0.2435009622813764</v>
       </c>
       <c r="Q5">
-        <v>2.77500618933825</v>
+        <v>1.7050837763325</v>
       </c>
       <c r="R5">
-        <v>11.100024757353</v>
+        <v>6.820335105329999</v>
       </c>
       <c r="S5">
-        <v>0.1680737926295583</v>
+        <v>0.3041142524947457</v>
       </c>
       <c r="T5">
-        <v>0.1094433645146827</v>
+        <v>0.2435009622813764</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.1928755</v>
+        <v>0.131795</v>
       </c>
       <c r="H6">
-        <v>0.385751</v>
+        <v>0.26359</v>
       </c>
       <c r="I6">
-        <v>0.5971269868707221</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.4970108562608389</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.493894666666667</v>
+        <v>0.882742</v>
       </c>
       <c r="N6">
-        <v>19.481684</v>
+        <v>2.648226</v>
       </c>
       <c r="O6">
-        <v>0.1270432658722128</v>
+        <v>0.02075027117909931</v>
       </c>
       <c r="P6">
-        <v>0.1490847317785038</v>
+        <v>0.02492177343676531</v>
       </c>
       <c r="Q6">
-        <v>1.252513180780667</v>
+        <v>0.11634098189</v>
       </c>
       <c r="R6">
-        <v>7.515079084683999</v>
+        <v>0.6980458913400001</v>
       </c>
       <c r="S6">
-        <v>0.07586096255249045</v>
+        <v>0.02075027117909931</v>
       </c>
       <c r="T6">
-        <v>0.07409673019665167</v>
+        <v>0.02492177343676531</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.1928755</v>
+        <v>0.131795</v>
       </c>
       <c r="H7">
-        <v>0.385751</v>
+        <v>0.26359</v>
       </c>
       <c r="I7">
-        <v>0.5971269868707221</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0.4970108562608389</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,400 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.460941333333333</v>
+        <v>3.994844666666667</v>
       </c>
       <c r="N7">
-        <v>16.382824</v>
+        <v>11.984534</v>
       </c>
       <c r="O7">
-        <v>0.1068350900861377</v>
+        <v>0.09390525221606305</v>
       </c>
       <c r="P7">
-        <v>0.1253705235037399</v>
+        <v>0.1127833655787726</v>
       </c>
       <c r="Q7">
-        <v>1.053281790137333</v>
+        <v>0.5265005528433333</v>
       </c>
       <c r="R7">
-        <v>6.319690740823999</v>
+        <v>3.15900331706</v>
       </c>
       <c r="S7">
-        <v>0.06379411543519758</v>
+        <v>0.09390525221606305</v>
       </c>
       <c r="T7">
-        <v>0.06231051123646341</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.1301303333333333</v>
-      </c>
-      <c r="H8">
-        <v>0.390391</v>
-      </c>
-      <c r="I8">
-        <v>0.4028730131292778</v>
-      </c>
-      <c r="J8">
-        <v>0.5029891437391611</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>8.2840475</v>
-      </c>
-      <c r="N8">
-        <v>16.568095</v>
-      </c>
-      <c r="O8">
-        <v>0.162064909128062</v>
-      </c>
-      <c r="P8">
-        <v>0.1267883207199013</v>
-      </c>
-      <c r="Q8">
-        <v>1.078005862524167</v>
-      </c>
-      <c r="R8">
-        <v>6.468035175144999</v>
-      </c>
-      <c r="S8">
-        <v>0.06529157826294492</v>
-      </c>
-      <c r="T8">
-        <v>0.06377314887502929</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.1301303333333333</v>
-      </c>
-      <c r="H9">
-        <v>0.390391</v>
-      </c>
-      <c r="I9">
-        <v>0.4028730131292778</v>
-      </c>
-      <c r="J9">
-        <v>0.5029891437391611</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>10.55762366666667</v>
-      </c>
-      <c r="N9">
-        <v>31.672871</v>
-      </c>
-      <c r="O9">
-        <v>0.2065440016062932</v>
-      </c>
-      <c r="P9">
-        <v>0.2423785067907964</v>
-      </c>
-      <c r="Q9">
-        <v>1.373867086951222</v>
-      </c>
-      <c r="R9">
-        <v>12.364803782561</v>
-      </c>
-      <c r="S9">
-        <v>0.08321100427090576</v>
-      </c>
-      <c r="T9">
-        <v>0.1219137575914792</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.1301303333333333</v>
-      </c>
-      <c r="H10">
-        <v>0.390391</v>
-      </c>
-      <c r="I10">
-        <v>0.4028730131292778</v>
-      </c>
-      <c r="J10">
-        <v>0.5029891437391611</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>5.931556333333333</v>
-      </c>
-      <c r="N10">
-        <v>17.794669</v>
-      </c>
-      <c r="O10">
-        <v>0.1160419635630586</v>
-      </c>
-      <c r="P10">
-        <v>0.13617475034254</v>
-      </c>
-      <c r="Q10">
-        <v>0.771875402842111</v>
-      </c>
-      <c r="R10">
-        <v>6.946878625578999</v>
-      </c>
-      <c r="S10">
-        <v>0.0467501755100873</v>
-      </c>
-      <c r="T10">
-        <v>0.06849442107368822</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.1301303333333333</v>
-      </c>
-      <c r="H11">
-        <v>0.390391</v>
-      </c>
-      <c r="I11">
-        <v>0.4028730131292778</v>
-      </c>
-      <c r="J11">
-        <v>0.5029891437391611</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>14.3875515</v>
-      </c>
-      <c r="N11">
-        <v>28.775103</v>
-      </c>
-      <c r="O11">
-        <v>0.2814707697442357</v>
-      </c>
-      <c r="P11">
-        <v>0.2202031668645185</v>
-      </c>
-      <c r="Q11">
-        <v>1.8722568725455</v>
-      </c>
-      <c r="R11">
-        <v>11.233541235273</v>
-      </c>
-      <c r="S11">
-        <v>0.1133969771146774</v>
-      </c>
-      <c r="T11">
-        <v>0.1107598023498358</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.1301303333333333</v>
-      </c>
-      <c r="H12">
-        <v>0.390391</v>
-      </c>
-      <c r="I12">
-        <v>0.4028730131292778</v>
-      </c>
-      <c r="J12">
-        <v>0.5029891437391611</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>6.493894666666667</v>
-      </c>
-      <c r="N12">
-        <v>19.481684</v>
-      </c>
-      <c r="O12">
-        <v>0.1270432658722128</v>
-      </c>
-      <c r="P12">
-        <v>0.1490847317785038</v>
-      </c>
-      <c r="Q12">
-        <v>0.8450526776048888</v>
-      </c>
-      <c r="R12">
-        <v>7.605474098444001</v>
-      </c>
-      <c r="S12">
-        <v>0.0511823033197223</v>
-      </c>
-      <c r="T12">
-        <v>0.07498800158185212</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.1301303333333333</v>
-      </c>
-      <c r="H13">
-        <v>0.390391</v>
-      </c>
-      <c r="I13">
-        <v>0.4028730131292778</v>
-      </c>
-      <c r="J13">
-        <v>0.5029891437391611</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>5.460941333333333</v>
-      </c>
-      <c r="N13">
-        <v>16.382824</v>
-      </c>
-      <c r="O13">
-        <v>0.1068350900861377</v>
-      </c>
-      <c r="P13">
-        <v>0.1253705235037399</v>
-      </c>
-      <c r="Q13">
-        <v>0.7106341160204444</v>
-      </c>
-      <c r="R13">
-        <v>6.395707044183999</v>
-      </c>
-      <c r="S13">
-        <v>0.04304097465094015</v>
-      </c>
-      <c r="T13">
-        <v>0.06306001226727652</v>
+        <v>0.1127833655787726</v>
       </c>
     </row>
   </sheetData>
